--- a/public/downloads/anexo.xlsx
+++ b/public/downloads/anexo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SALVAR2021\2022\DISEÑOS\GESTION_AGROEMPRESARIAL\COMPONENTES\CF04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kike\Desktop\Sena 2022\GESTION_AGROEMPRESARIAL_CF4\public\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DF8F608-3799-4935-9312-C7E789890E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4596684-3E63-450A-A541-4EE89F36371E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{689E6850-B1C3-4654-BCBA-41ED69E42B2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{689E6850-B1C3-4654-BCBA-41ED69E42B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -77,19 +75,12 @@
     <t>Cargo</t>
   </si>
   <si>
-    <t>Quien
-Numero de personas</t>
-  </si>
-  <si>
     <t>$salario</t>
   </si>
   <si>
     <t>Computador</t>
   </si>
   <si>
-    <t>Telefono</t>
-  </si>
-  <si>
     <t>Silla</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>Papelería</t>
   </si>
   <si>
-    <t>Equipo de oficna</t>
-  </si>
-  <si>
     <t>Mq y equipo especializado</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t>Radio</t>
   </si>
   <si>
-    <t>Papeleria Comercial</t>
-  </si>
-  <si>
     <t>Celular</t>
   </si>
   <si>
@@ -150,9 +135,6 @@
     <t>Sc1</t>
   </si>
   <si>
-    <t>$ Centro de computo</t>
-  </si>
-  <si>
     <t>Rr1</t>
   </si>
   <si>
@@ -180,9 +162,6 @@
     <t>Anibal</t>
   </si>
   <si>
-    <t>$ Planta telefonica</t>
-  </si>
-  <si>
     <t>Rr2</t>
   </si>
   <si>
@@ -252,9 +231,6 @@
     <t>Sc9</t>
   </si>
   <si>
-    <t>Hacer cartas, contestar telefono. Archivar</t>
-  </si>
-  <si>
     <t>Clemencia</t>
   </si>
   <si>
@@ -424,6 +400,28 @@
   </si>
   <si>
     <t>$$$</t>
+  </si>
+  <si>
+    <t>Quién
+Número de personas</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Hacer cartas, contestar teléfono. Archivar</t>
+  </si>
+  <si>
+    <t>Equipo de oficina</t>
+  </si>
+  <si>
+    <t>Papelería Comercial</t>
+  </si>
+  <si>
+    <t>$ Centro de cómputo</t>
+  </si>
+  <si>
+    <t>$ Planta telefónica</t>
   </si>
 </sst>
 </file>
@@ -1763,32 +1761,32 @@
   <dimension ref="A2:AF24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="AD12" sqref="AD12:AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="4.109375" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="4.109375" customWidth="1"/>
     <col min="22" max="22" width="6" customWidth="1"/>
-    <col min="23" max="24" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="4.140625" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="5.42578125" customWidth="1"/>
+    <col min="23" max="24" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4.109375" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" customWidth="1"/>
+    <col min="28" max="28" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AC3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1800,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="63" t="s">
         <v>4</v>
       </c>
@@ -1841,7 +1839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1852,66 +1850,66 @@
         <v>12</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="M5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="P5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="Q5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="R5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="T5" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
@@ -1921,16 +1919,16 @@
       <c r="AE5" s="15"/>
       <c r="AF5" s="16"/>
     </row>
-    <row r="6" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" s="21">
         <v>877803</v>
@@ -1981,19 +1979,19 @@
       <c r="AA6" s="23"/>
       <c r="AB6" s="23"/>
       <c r="AC6" s="24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AD6" s="69" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="AE6" s="24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AF6" s="25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -2027,10 +2025,10 @@
       <c r="AE7" s="32"/>
       <c r="AF7" s="33"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8" s="27"/>
       <c r="E8" s="34"/>
@@ -2064,26 +2062,26 @@
       <c r="AA8" s="31"/>
       <c r="AB8" s="31"/>
       <c r="AC8" s="32" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AD8" s="71"/>
       <c r="AE8" s="32"/>
       <c r="AF8" s="33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="29">
         <f>+E6*2</f>
@@ -2132,21 +2130,21 @@
       <c r="AB9" s="31"/>
       <c r="AC9" s="32"/>
       <c r="AD9" s="72" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="AE9" s="32" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AF9" s="33"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E10" s="29">
         <f>+E9</f>
@@ -2184,22 +2182,22 @@
       <c r="AA10" s="31"/>
       <c r="AB10" s="31"/>
       <c r="AC10" s="32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AD10" s="70"/>
       <c r="AE10" s="32"/>
       <c r="AF10" s="33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E11" s="29">
         <f>+E10</f>
@@ -2237,13 +2235,13 @@
       <c r="AA11" s="31"/>
       <c r="AB11" s="31"/>
       <c r="AC11" s="32" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AD11" s="71"/>
       <c r="AE11" s="32"/>
       <c r="AF11" s="33"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
@@ -2274,14 +2272,14 @@
       <c r="AB12" s="31"/>
       <c r="AC12" s="32"/>
       <c r="AD12" s="73" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AE12" s="32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AF12" s="33"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
@@ -2315,16 +2313,16 @@
       <c r="AE13" s="32"/>
       <c r="AF13" s="33"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E14" s="29">
         <v>1100000</v>
@@ -2377,20 +2375,20 @@
       <c r="AA14" s="31"/>
       <c r="AB14" s="31"/>
       <c r="AC14" s="32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AD14" s="74"/>
       <c r="AE14" s="32"/>
       <c r="AF14" s="33"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C15" s="76"/>
       <c r="D15" s="28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E15" s="29">
         <v>1100000</v>
@@ -2443,18 +2441,18 @@
       <c r="AA15" s="31"/>
       <c r="AB15" s="31"/>
       <c r="AC15" s="32" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AD15" s="74"/>
       <c r="AE15" s="32"/>
       <c r="AF15" s="33"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
       <c r="D16" s="28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E16" s="29">
         <v>1100000</v>
@@ -2507,20 +2505,20 @@
       <c r="AA16" s="31"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="32" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AD16" s="75"/>
       <c r="AE16" s="32"/>
       <c r="AF16" s="33"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E17" s="29">
         <v>1100000</v>
@@ -2573,13 +2571,13 @@
       <c r="AA17" s="31"/>
       <c r="AB17" s="31"/>
       <c r="AC17" s="32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AD17" s="36"/>
       <c r="AE17" s="32"/>
       <c r="AF17" s="33"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
@@ -2609,22 +2607,22 @@
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
       <c r="AC18" s="32" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AD18" s="37"/>
       <c r="AE18" s="32"/>
       <c r="AF18" s="33"/>
     </row>
-    <row r="19" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E19" s="21">
         <f>+E6</f>
@@ -2682,15 +2680,15 @@
       <c r="AA19" s="31"/>
       <c r="AB19" s="31"/>
       <c r="AC19" s="32" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AD19" s="37"/>
       <c r="AE19" s="32"/>
       <c r="AF19" s="33" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:32" s="47" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39"/>
       <c r="B20" s="26"/>
       <c r="C20" s="40"/>
@@ -2724,9 +2722,9 @@
       <c r="AE20" s="44"/>
       <c r="AF20" s="46"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B21" s="48" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C21" s="48">
         <f>COUNTA(C6:C20)</f>
@@ -2767,15 +2765,15 @@
       <c r="AE21" s="52"/>
       <c r="AF21" s="53"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C22" s="32" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F22" s="30">
         <f>SUM(F6:F20)</f>
@@ -2871,75 +2869,75 @@
       <c r="AE22" s="32"/>
       <c r="AF22" s="56"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="E23" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="M23" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="N23" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="O23" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="P23" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="Q23" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="R23" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="S23" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="T23" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="N23" s="30" t="s">
+      <c r="U23" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="O23" s="30" t="s">
+      <c r="V23" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="P23" s="30" t="s">
+      <c r="W23" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="Q23" s="30" t="s">
+      <c r="X23" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="R23" s="30" t="s">
+      <c r="Y23" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="S23" s="30" t="s">
+      <c r="Z23" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="T23" s="30" t="s">
+      <c r="AA23" s="31" t="s">
         <v>94</v>
-      </c>
-      <c r="U23" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="V23" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="W23" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="X23" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y23" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z23" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA23" s="31" t="s">
-        <v>101</v>
       </c>
       <c r="AB23" s="55"/>
       <c r="AC23" s="32"/>
@@ -2947,93 +2945,93 @@
       <c r="AE23" s="32"/>
       <c r="AF23" s="56"/>
     </row>
-    <row r="24" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="62" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B24" s="62"/>
       <c r="C24" s="62"/>
       <c r="E24" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="M24" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="N24" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="O24" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="P24" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="Q24" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="R24" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="S24" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="M24" s="30" t="s">
+      <c r="T24" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="N24" s="30" t="s">
+      <c r="U24" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="O24" s="30" t="s">
+      <c r="V24" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P24" s="30" t="s">
+      <c r="W24" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="Q24" s="30" t="s">
+      <c r="X24" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="R24" s="30" t="s">
+      <c r="Y24" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="S24" s="30" t="s">
+      <c r="Z24" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="T24" s="30" t="s">
+      <c r="AA24" s="31" t="s">
         <v>118</v>
-      </c>
-      <c r="U24" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="V24" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="W24" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="X24" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y24" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z24" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA24" s="31" t="s">
-        <v>125</v>
       </c>
       <c r="AB24" s="55"/>
       <c r="AC24" s="59" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AD24" s="60" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AE24" s="59" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AF24" s="61" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
